--- a/Ontap/Excel/Excel_De01.xlsx
+++ b/Ontap/Excel/Excel_De01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DULIEU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>BẢNG TÍNH CƯỚC PHÍ CHUYÊN CHỞ THÁNG 7 - 2018</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Câu hỏi 6. (1,0đ) Tính tổng cước phí của các Tuyến và điền vào Bảng thống kê</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -289,27 +292,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -594,7 +598,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -611,20 +615,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -665,31 +669,31 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5">
         <v>43324</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>43329</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -700,20 +704,20 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6">
+      <c r="F4" s="6"/>
+      <c r="G4" s="5">
         <v>43324</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>43331</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -724,20 +728,20 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6">
+      <c r="F5" s="6"/>
+      <c r="G5" s="5">
         <v>43336</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>43342</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -748,20 +752,20 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6">
+      <c r="F6" s="6"/>
+      <c r="G6" s="5">
         <v>43327</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>43331</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -772,20 +776,20 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5">
         <v>43334</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>43335</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -796,20 +800,20 @@
       <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6">
+      <c r="F8" s="6"/>
+      <c r="G8" s="5">
         <v>43327</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>43330</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -820,29 +824,29 @@
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6">
+      <c r="F9" s="6"/>
+      <c r="G9" s="5">
         <v>43335</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>43339</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="G11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="G11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -857,10 +861,10 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -871,14 +875,14 @@
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>250000</v>
       </c>
       <c r="D13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -887,30 +891,30 @@
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>320000</v>
       </c>
       <c r="D14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="8">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6">
         <v>550000</v>
       </c>
       <c r="D15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -919,14 +923,14 @@
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>380000</v>
       </c>
       <c r="D16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -944,7 +948,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>

--- a/Ontap/Excel/Excel_De01.xlsx
+++ b/Ontap/Excel/Excel_De01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="DULIEU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>BẢNG TÍNH CƯỚC PHÍ CHUYÊN CHỞ THÁNG 7 - 2018</t>
   </si>
@@ -105,18 +105,6 @@
     <t>BẢNG 1</t>
   </si>
   <si>
-    <t>Mã tỉnh</t>
-  </si>
-  <si>
-    <t>Tên tỉnh</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Thời gian(quy định)</t>
-  </si>
-  <si>
     <t>PY</t>
   </si>
   <si>
@@ -144,12 +132,6 @@
     <t>BẢNG THỐNG KÊ</t>
   </si>
   <si>
-    <t>Tuyến</t>
-  </si>
-  <si>
-    <t>Tổng cước phí</t>
-  </si>
-  <si>
     <t>SỐ LƯỢNG QUY ĐỊNH</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>THỜI GIAN THỰC HIỆN</t>
   </si>
   <si>
-    <t>Câu hỏi 4. (0,5đ) Thời gian thực hiện = Ngày đi - Ngày đến. Nếu Ngày đến = Ngày đi thì Thời gian thực hiện được tính là 1 ngày</t>
-  </si>
-  <si>
     <t>Câu hỏi 5. (1,0đ)</t>
   </si>
   <si>
@@ -187,17 +166,33 @@
   </si>
   <si>
     <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Câu hỏi 4. (0,5đ) Thời gian thực hiện = Ngày đến - Ngày đi. Nếu Ngày đến = Ngày đi thì Thời gian thực hiện được tính là 1 ngày</t>
+  </si>
+  <si>
+    <t>MÃ TỈNH</t>
+  </si>
+  <si>
+    <t>TÊN TỈNH</t>
+  </si>
+  <si>
+    <t>TUYẾN</t>
+  </si>
+  <si>
+    <t>TỔNG CƯỚC PHÍ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -222,6 +217,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -294,26 +297,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -597,16 +601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.54296875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -615,85 +619,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
         <v>43324</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>43329</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -704,20 +708,20 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>43324</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>43331</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -728,20 +732,20 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>43336</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>43342</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -752,20 +756,20 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5">
+      <c r="F6" s="4"/>
+      <c r="G6" s="3">
         <v>43327</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>43331</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -776,20 +780,20 @@
       <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5">
+      <c r="F7" s="4"/>
+      <c r="G7" s="3">
         <v>43334</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>43335</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -800,20 +804,20 @@
       <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5">
+      <c r="F8" s="4"/>
+      <c r="G8" s="3">
         <v>43327</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>43330</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -824,113 +828,121 @@
       <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3">
         <v>43335</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>43339</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="G11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>250000</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="9">
+        <v>2.5</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>320000</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="9">
+        <v>3.5</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4">
+        <v>550000</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6">
-        <v>550000</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="8"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>380000</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="9">
+        <v>4</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -947,60 +959,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
